--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham.xlsx
@@ -477,16 +477,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>46.28596597436862</v>
+        <v>22.28393070392576</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004628596597436863</v>
+        <v>0.0002228393070392576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995371403402563</v>
+        <v>0.9997771606929607</v>
       </c>
       <c r="F2" t="n">
-        <v>65.88495753533554</v>
+        <v>85.56426560366678</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99953.71403402563</v>
+        <v>99977.71606929608</v>
       </c>
       <c r="C3" t="n">
-        <v>48.98423668463084</v>
+        <v>22.31446446393932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.0002231943811206172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9997768056188794</v>
       </c>
       <c r="F3" t="n">
-        <v>64.9152356090316</v>
+        <v>84.5832254906758</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99904.729797341</v>
+        <v>99955.40160483214</v>
       </c>
       <c r="C4" t="n">
-        <v>51.88238739780459</v>
+        <v>22.34937651317246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.0002235934842373943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9997764065157626</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94681901007346</v>
+        <v>83.60199658375426</v>
       </c>
     </row>
     <row r="5">
@@ -534,19 +534,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99852.84740994319</v>
+        <v>99933.05222831896</v>
       </c>
       <c r="C5" t="n">
-        <v>54.99503534525562</v>
+        <v>22.38920847730267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.0002240420759505035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9997759579240495</v>
       </c>
       <c r="F5" t="n">
-        <v>62.97978524517265</v>
+        <v>82.62058180425171</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99797.85237459793</v>
+        <v>99910.66301984167</v>
       </c>
       <c r="C6" t="n">
-        <v>58.3378380841192</v>
+        <v>22.43456899188494</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.0002245462927958908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9997754537072041</v>
       </c>
       <c r="F6" t="n">
-        <v>62.01421562534781</v>
+        <v>81.63898439283155</v>
       </c>
     </row>
     <row r="7">
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99739.51453651382</v>
+        <v>99888.22845084978</v>
       </c>
       <c r="C7" t="n">
-        <v>61.92756304422883</v>
+        <v>22.48614199029288</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0002251130322263872</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9997748869677736</v>
       </c>
       <c r="F7" t="n">
-        <v>61.05019541096938</v>
+        <v>80.65720794300881</v>
       </c>
     </row>
     <row r="8">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99677.58697346959</v>
+        <v>99865.7423088595</v>
       </c>
       <c r="C8" t="n">
-        <v>65.78216100506052</v>
+        <v>22.54469601619907</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0002257500469627916</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9997742499530372</v>
       </c>
       <c r="F8" t="n">
-        <v>60.08781395850355</v>
+        <v>79.67525643809513</v>
       </c>
     </row>
     <row r="9">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99611.80481246453</v>
+        <v>99843.1976128433</v>
       </c>
       <c r="C9" t="n">
-        <v>69.92084360380376</v>
+        <v>22.61109468680176</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.0002264660510421512</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9997735339489578</v>
       </c>
       <c r="F9" t="n">
-        <v>59.12716486856021</v>
+        <v>78.69313429188064</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99541.88396886073</v>
+        <v>99820.5865181565</v>
       </c>
       <c r="C10" t="n">
-        <v>74.36416495394062</v>
+        <v>22.68630844897002</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0002272708390151923</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9997727291609848</v>
       </c>
       <c r="F10" t="n">
-        <v>58.16834613479978</v>
+        <v>77.71084639341203</v>
       </c>
     </row>
     <row r="11">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99467.51980390679</v>
+        <v>99797.90020970753</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13410742738209</v>
+        <v>22.77142778784285</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.000228175419923593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9997718245800764</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21146029320087</v>
+        <v>76.72839815625679</v>
       </c>
     </row>
     <row r="12">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99388.38569647941</v>
+        <v>99775.12878191969</v>
       </c>
       <c r="C12" t="n">
-        <v>84.2541716187915</v>
+        <v>22.86767806680746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0002291921678877484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999152273467082</v>
+        <v>0.9997708078321123</v>
       </c>
       <c r="F12" t="n">
-        <v>56.25661457113542</v>
+        <v>75.745795572679</v>
       </c>
     </row>
     <row r="13">
@@ -694,19 +694,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99304.13152486063</v>
+        <v>99752.26110385288</v>
       </c>
       <c r="C13" t="n">
-        <v>89.74947046970127</v>
+        <v>22.97643619998853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0002303349913649333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9997696650086351</v>
       </c>
       <c r="F13" t="n">
-        <v>55.30392103563819</v>
+        <v>74.76304527318699</v>
       </c>
     </row>
     <row r="14">
@@ -714,19 +714,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99214.38205439092</v>
+        <v>99729.2846676529</v>
       </c>
       <c r="C14" t="n">
-        <v>95.64682747863584</v>
+        <v>23.09924938315849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0002316195233941221</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9997683804766059</v>
       </c>
       <c r="F14" t="n">
-        <v>54.35349674019598</v>
+        <v>73.78015459195352</v>
       </c>
     </row>
     <row r="15">
@@ -734,19 +734,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99118.73522691229</v>
+        <v>99706.18541826974</v>
       </c>
       <c r="C15" t="n">
-        <v>101.9748788619895</v>
+        <v>23.23785613606873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0002330633354248324</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9997669366645752</v>
       </c>
       <c r="F15" t="n">
-        <v>53.4054638693168</v>
+        <v>72.79713163864982</v>
       </c>
     </row>
     <row r="16">
@@ -754,19 +754,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99016.7603480503</v>
+        <v>99682.94756213368</v>
       </c>
       <c r="C16" t="n">
-        <v>108.7641794565027</v>
+        <v>23.39420994107155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.0002346861776583165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9997653138223417</v>
       </c>
       <c r="F16" t="n">
-        <v>52.45994988007141</v>
+        <v>71.81398537727971</v>
       </c>
     </row>
     <row r="17">
@@ -774,19 +774,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98907.9961685938</v>
+        <v>99659.5533521926</v>
       </c>
       <c r="C17" t="n">
-        <v>116.0473120652111</v>
+        <v>23.57050579692938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.0002365102491843629</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9997634897508156</v>
       </c>
       <c r="F17" t="n">
-        <v>51.51708763972911</v>
+        <v>70.83072571264681</v>
       </c>
     </row>
     <row r="18">
@@ -794,19 +794,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98791.94885652859</v>
+        <v>99635.98284639567</v>
       </c>
       <c r="C18" t="n">
-        <v>123.8589998443516</v>
+        <v>23.76921004595136</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.000238560501607088</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9997614394983929</v>
       </c>
       <c r="F18" t="n">
-        <v>50.5770155585374</v>
+        <v>69.84736358513778</v>
       </c>
     </row>
     <row r="19">
@@ -814,19 +814,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98668.08985668424</v>
+        <v>99612.21363634971</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2362212037681</v>
+        <v>23.99309387628278</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.0002408649803112839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9997591350196887</v>
       </c>
       <c r="F19" t="n">
-        <v>49.63987771661991</v>
+        <v>68.86391107455717</v>
       </c>
     </row>
     <row r="20">
@@ -834,19 +834,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98535.85363548047</v>
+        <v>99588.22054247343</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2183265481449</v>
+        <v>24.24527094990752</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.000243455208034038</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.999756544791966</v>
       </c>
       <c r="F20" t="n">
-        <v>48.70582398389132</v>
+        <v>67.88038151380417</v>
       </c>
     </row>
     <row r="21">
@@ -854,19 +854,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98394.63530893232</v>
+        <v>99563.97527152352</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8471560146982</v>
+        <v>24.52923966152514</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.0002463666159836508</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.9997536333840163</v>
       </c>
       <c r="F21" t="n">
-        <v>47.77501013180991</v>
+        <v>66.89678961324029</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98243.78815291762</v>
+        <v>99539.446031862</v>
       </c>
       <c r="C22" t="n">
-        <v>161.1671571644356</v>
+        <v>24.84893059472741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.000249639028398585</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9997503609716014</v>
       </c>
       <c r="F22" t="n">
-        <v>46.84759793571106</v>
+        <v>65.91315159665596</v>
       </c>
     </row>
     <row r="23">
@@ -894,19 +894,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98082.62099575318</v>
+        <v>99514.59710126727</v>
       </c>
       <c r="C23" t="n">
-        <v>172.2255013516919</v>
+        <v>25.20875981004588</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.0002533172071670364</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.999746682792833</v>
       </c>
       <c r="F23" t="n">
-        <v>45.92375526638661</v>
+        <v>64.92948534980732</v>
       </c>
     </row>
     <row r="24">
@@ -914,19 +914,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97910.39549440148</v>
+        <v>99489.38834145722</v>
       </c>
       <c r="C24" t="n">
-        <v>184.0721972291555</v>
+        <v>25.61368867592734</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.0002574514639492875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9997425485360507</v>
       </c>
       <c r="F24" t="n">
-        <v>45.00365616949835</v>
+        <v>63.94581058255771</v>
       </c>
     </row>
     <row r="25">
@@ -934,19 +934,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97726.32329717233</v>
+        <v>99463.77465278129</v>
       </c>
       <c r="C25" t="n">
-        <v>196.7601995363588</v>
+        <v>26.06929103873174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.0002620983481648187</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9997379016518352</v>
       </c>
       <c r="F25" t="n">
-        <v>44.08748093133801</v>
+        <v>62.96214900572461</v>
       </c>
     </row>
     <row r="26">
@@ -954,19 +954,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97529.56309763597</v>
+        <v>99437.70536174256</v>
       </c>
       <c r="C26" t="n">
-        <v>210.3455109642099</v>
+        <v>26.58182862274045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.0002673214202403296</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.9997326785797597</v>
       </c>
       <c r="F26" t="n">
-        <v>43.17541612937381</v>
+        <v>61.97852452379806</v>
       </c>
     </row>
     <row r="27">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97319.21758667176</v>
+        <v>99411.12353311981</v>
       </c>
       <c r="C27" t="n">
-        <v>224.8872744818051</v>
+        <v>27.15833565723852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.0002731921206804433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9997268078793196</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2676546659542</v>
+        <v>60.99496344476375</v>
       </c>
     </row>
     <row r="28">
@@ -994,19 +994,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97094.33031218995</v>
+        <v>99383.96519746257</v>
       </c>
       <c r="C28" t="n">
-        <v>240.4478530476344</v>
+        <v>27.80671384487818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.0002797907468234939</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9997202092531765</v>
       </c>
       <c r="F28" t="n">
-        <v>41.36439578347488</v>
+        <v>60.01149470832866</v>
       </c>
     </row>
     <row r="29">
@@ -1014,19 +1014,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96853.88245914232</v>
+        <v>99356.15848361769</v>
       </c>
       <c r="C29" t="n">
-        <v>257.0928931002621</v>
+        <v>28.53583891695504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.0002872075506186178</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9997127924493814</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46584505925761</v>
+        <v>59.02815013391166</v>
       </c>
     </row>
     <row r="30">
@@ -1034,19 +1034,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96596.78956604206</v>
+        <v>99327.62264470074</v>
       </c>
       <c r="C30" t="n">
-        <v>274.8913676269592</v>
+        <v>29.35568016571148</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.0002955439724025011</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9997044560275975</v>
       </c>
       <c r="F30" t="n">
-        <v>39.57221437833789</v>
+        <v>58.04496468982128</v>
       </c>
     </row>
     <row r="31">
@@ -1054,19 +1054,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96321.8981984151</v>
+        <v>99298.26696453503</v>
       </c>
       <c r="C31" t="n">
-        <v>293.9155939364999</v>
+        <v>30.27743450465336</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.0003049140275073192</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9996950859724927</v>
       </c>
       <c r="F31" t="n">
-        <v>38.68372188231741</v>
+        <v>57.06197678509969</v>
       </c>
     </row>
     <row r="32">
@@ -1074,19 +1074,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96027.9826044786</v>
+        <v>99267.98953003038</v>
       </c>
       <c r="C32" t="n">
-        <v>314.2412205078043</v>
+        <v>31.3136767854815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.0003154458646108527</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9996845541353891</v>
       </c>
       <c r="F32" t="n">
-        <v>37.80059189240575</v>
+        <v>56.07922858556097</v>
       </c>
     </row>
     <row r="33">
@@ -1094,19 +1094,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95713.7413839708</v>
+        <v>99236.67585324489</v>
       </c>
       <c r="C33" t="n">
-        <v>335.947176444464</v>
+        <v>32.47852829574072</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.0003272835170715638</v>
       </c>
       <c r="E33" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9996727164829284</v>
       </c>
       <c r="F33" t="n">
-        <v>36.92305480475717</v>
+        <v>55.09676635559358</v>
       </c>
     </row>
     <row r="34">
@@ -1114,19 +1114,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95377.79420752634</v>
+        <v>99204.19732494914</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1155761295339</v>
+        <v>33.78784557659677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.0003405888711132121</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9996594111288868</v>
       </c>
       <c r="F34" t="n">
-        <v>36.05134695620404</v>
+        <v>54.11464082732714</v>
       </c>
     </row>
     <row r="35">
@@ -1134,19 +1134,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95018.6786313968</v>
+        <v>99170.40947937254</v>
       </c>
       <c r="C35" t="n">
-        <v>383.831570643729</v>
+        <v>35.259431935956</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.000355543877665343</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9996444561223347</v>
       </c>
       <c r="F35" t="n">
-        <v>35.18571045849905</v>
+        <v>53.13290759878074</v>
       </c>
     </row>
     <row r="36">
@@ -1154,19 +1154,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94634.84706075308</v>
+        <v>99135.15004743657</v>
       </c>
       <c r="C36" t="n">
-        <v>410.183136378647</v>
+        <v>36.91327428958848</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.0003723530379681206</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.9996276469620319</v>
       </c>
       <c r="F36" t="n">
-        <v>34.32639299920874</v>
+        <v>52.15162756260975</v>
       </c>
     </row>
     <row r="37">
@@ -1174,19 +1174,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94224.66392437443</v>
+        <v>99098.23677314699</v>
       </c>
       <c r="C37" t="n">
-        <v>438.2607900462339</v>
+        <v>38.77180824259952</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.0003912461967547909</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9996087538032452</v>
       </c>
       <c r="F37" t="n">
-        <v>33.47364760744941</v>
+        <v>51.17086736704832</v>
       </c>
     </row>
     <row r="38">
@@ -1194,19 +1194,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93786.4031343282</v>
+        <v>99059.46496490439</v>
       </c>
       <c r="C38" t="n">
-        <v>468.1572179593772</v>
+        <v>40.86021462610606</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.000412481680984067</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.9995875183190159</v>
       </c>
       <c r="F38" t="n">
-        <v>32.62773238272807</v>
+        <v>50.19069991059919</v>
       </c>
     </row>
     <row r="39">
@@ -1214,19 +1214,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>93318.24591636882</v>
+        <v>99018.60475027827</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9668060438583</v>
+        <v>43.20675102869054</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.0004363498267588861</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9995636501732411</v>
       </c>
       <c r="F39" t="n">
-        <v>31.78891018524613</v>
+        <v>49.2112048719485</v>
       </c>
     </row>
     <row r="40">
@@ -1234,19 +1234,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92818.27911032496</v>
+        <v>98975.39799924959</v>
       </c>
       <c r="C40" t="n">
-        <v>533.7850555516319</v>
+        <v>45.84312220818751</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.0004631769422996923</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9995368230577003</v>
       </c>
       <c r="F40" t="n">
-        <v>30.95744828614452</v>
+        <v>48.23246927647482</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92284.49405477333</v>
+        <v>98929.5548770414</v>
       </c>
       <c r="C41" t="n">
-        <v>569.7078679013216</v>
+        <v>48.80489363396037</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.0004933297607031539</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9995066702392968</v>
       </c>
       <c r="F41" t="n">
-        <v>30.1336179763173</v>
+        <v>47.25458810057203</v>
       </c>
     </row>
     <row r="42">
@@ -1274,19 +1274,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91714.78618687201</v>
+        <v>98880.74998340744</v>
       </c>
       <c r="C42" t="n">
-        <v>607.8306805015958</v>
+        <v>52.13195279015003</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.0005272204427949623</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9933725988385</v>
+        <v>0.999472779557205</v>
       </c>
       <c r="F42" t="n">
-        <v>29.31769413259914</v>
+        <v>46.27766491481071</v>
       </c>
     </row>
     <row r="43">
@@ -1294,19 +1294,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91106.95550637042</v>
+        <v>98828.61803061729</v>
       </c>
       <c r="C43" t="n">
-        <v>648.2474338598136</v>
+        <v>55.86902325921151</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.0005653121977472475</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9994346878022528</v>
       </c>
       <c r="F43" t="n">
-        <v>28.50995474034032</v>
+        <v>45.30181256671293</v>
       </c>
     </row>
     <row r="44">
@@ -1314,19 +1314,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90458.70807251061</v>
+        <v>98772.74900735808</v>
       </c>
       <c r="C44" t="n">
-        <v>691.049348795891</v>
+        <v>60.06623699527086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.0006081255973831023</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.9993918744026169</v>
       </c>
       <c r="F44" t="n">
-        <v>27.71068037162394</v>
+        <v>44.32715390360494</v>
       </c>
     </row>
     <row r="45">
@@ -1334,19 +1334,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89767.65872371472</v>
+        <v>98712.68277036281</v>
       </c>
       <c r="C45" t="n">
-        <v>736.3234912419982</v>
+        <v>64.7797705755454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.0006562456693254282</v>
       </c>
       <c r="E45" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9993437543306746</v>
       </c>
       <c r="F45" t="n">
-        <v>26.92015361865357</v>
+        <v>43.35382253563195</v>
       </c>
     </row>
     <row r="46">
@@ -1354,19 +1354,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89031.33523247272</v>
+        <v>98647.90299978726</v>
       </c>
       <c r="C46" t="n">
-        <v>784.1511010063172</v>
+        <v>70.07255156888313</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.0007103298644780542</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9992896701355219</v>
       </c>
       <c r="F46" t="n">
-        <v>26.13865848214731</v>
+        <v>42.38196363856191</v>
       </c>
     </row>
     <row r="47">
@@ -1374,19 +1374,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88247.18413146641</v>
+        <v>98577.83044821837</v>
       </c>
       <c r="C47" t="n">
-        <v>834.6056601295493</v>
+        <v>76.01504146213773</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.0007711170058877226</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.9992288829941123</v>
       </c>
       <c r="F47" t="n">
-        <v>25.36647971491491</v>
+        <v>41.41173479545921</v>
       </c>
     </row>
     <row r="48">
@@ -1394,19 +1394,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87412.57847133686</v>
+        <v>98501.81540675624</v>
       </c>
       <c r="C48" t="n">
-        <v>887.7506762133822</v>
+        <v>82.68610180573953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.0008394373389393195</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.9991605626610607</v>
       </c>
       <c r="F48" t="n">
-        <v>24.6039021211693</v>
+        <v>40.44330687566832</v>
       </c>
     </row>
     <row r="49">
@@ -1414,19 +1414,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86524.82779512348</v>
+        <v>98419.1293049505</v>
       </c>
       <c r="C49" t="n">
-        <v>943.6371565280082</v>
+        <v>90.17395034379679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.000916223817266193</v>
       </c>
       <c r="E49" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9990837761827338</v>
       </c>
       <c r="F49" t="n">
-        <v>23.85120981253064</v>
+        <v>39.47686494880007</v>
       </c>
     </row>
     <row r="50">
@@ -1434,19 +1434,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85581.19063859546</v>
+        <v>98328.9553546067</v>
       </c>
       <c r="C50" t="n">
-        <v>1002.300750028557</v>
+        <v>98.57721382670125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.001002524774835645</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9989974752251644</v>
       </c>
       <c r="F50" t="n">
-        <v>23.10868542211917</v>
+        <v>38.51260923055081</v>
       </c>
     </row>
     <row r="51">
@@ -1454,19 +1454,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84578.8898885669</v>
+        <v>98230.37814078</v>
       </c>
       <c r="C51" t="n">
-        <v>1063.758536883758</v>
+        <v>108.006083903227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.001099518152606893</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9989004818473931</v>
       </c>
       <c r="F51" t="n">
-        <v>22.37660927859927</v>
+        <v>37.55075605619838</v>
       </c>
     </row>
     <row r="52">
@@ -1474,19 +1474,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83515.13135168314</v>
+        <v>98122.37205687677</v>
       </c>
       <c r="C52" t="n">
-        <v>1128.005449047429</v>
+        <v>118.5835818678643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.001208527468120391</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9987914725318796</v>
       </c>
       <c r="F52" t="n">
-        <v>21.65525854252947</v>
+        <v>36.59153887650121</v>
       </c>
     </row>
     <row r="53">
@@ -1494,19 +1494,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82387.12590263571</v>
+        <v>98003.78847500891</v>
       </c>
       <c r="C53" t="n">
-        <v>1195.010311133158</v>
+        <v>130.4469369913162</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.001331039738576845</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9986689602614232</v>
       </c>
       <c r="F53" t="n">
-        <v>20.94490630788763</v>
+        <v>35.63520926946964</v>
       </c>
     </row>
     <row r="54">
@@ -1514,19 +1514,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81192.11559150256</v>
+        <v>97873.3415380176</v>
       </c>
       <c r="C54" t="n">
-        <v>1264.711498778952</v>
+        <v>143.7490815514412</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.001468725592613018</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.998531274407387</v>
       </c>
       <c r="F54" t="n">
-        <v>20.24582067217147</v>
+        <v>34.68203796007863</v>
       </c>
     </row>
     <row r="55">
@@ -1534,19 +1534,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79927.40409272361</v>
+        <v>97729.59245646615</v>
       </c>
       <c r="C55" t="n">
-        <v>1337.012222253824</v>
+        <v>158.6602633374356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.001623461833304085</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9983765381666959</v>
       </c>
       <c r="F55" t="n">
-        <v>19.55826377901818</v>
+        <v>33.73231583844497</v>
       </c>
     </row>
     <row r="56">
@@ -1554,19 +1554,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78590.39187046979</v>
+        <v>97570.93219312871</v>
       </c>
       <c r="C56" t="n">
-        <v>1411.775456734167</v>
+        <v>175.3697731078956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.001797356745150025</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.99820264325485</v>
       </c>
       <c r="F56" t="n">
-        <v>18.88249083783577</v>
+        <v>32.78635496530094</v>
       </c>
     </row>
     <row r="57">
@@ -1574,19 +1574,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77178.61641373562</v>
+        <v>97395.56242002081</v>
       </c>
       <c r="C57" t="n">
-        <v>1488.818557964678</v>
+        <v>194.0877799782701</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.00199277847117163</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9980072215288284</v>
       </c>
       <c r="F57" t="n">
-        <v>18.21874912548601</v>
+        <v>31.84448955176525</v>
       </c>
     </row>
     <row r="58">
@@ -1594,19 +1594,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75689.79785577094</v>
+        <v>97201.47464004254</v>
       </c>
       <c r="C58" t="n">
-        <v>1567.90762341504</v>
+        <v>215.0472616677226</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.00221238682297864</v>
       </c>
       <c r="E58" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9977876131770214</v>
       </c>
       <c r="F58" t="n">
-        <v>17.56727697559617</v>
+        <v>30.90707689845091</v>
       </c>
     </row>
     <row r="59">
@@ -1614,19 +1614,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74121.8902323559</v>
+        <v>96986.42737837481</v>
       </c>
       <c r="C59" t="n">
-        <v>1648.751685016245</v>
+        <v>238.5060085499472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.002459168927003152</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9975408310729968</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92830276159659</v>
+        <v>29.97449827687556</v>
       </c>
     </row>
     <row r="60">
@@ -1634,19 +1634,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72473.13854733965</v>
+        <v>96747.92136982486</v>
       </c>
       <c r="C60" t="n">
-        <v>1730.996850502635</v>
+        <v>264.7486700409052</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.002736479154202054</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.9972635208457979</v>
       </c>
       <c r="F60" t="n">
-        <v>16.30204388007245</v>
+        <v>29.04715973397454</v>
       </c>
     </row>
     <row r="61">
@@ -1654,19 +1654,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70742.14169683702</v>
+        <v>96483.17269978396</v>
       </c>
       <c r="C61" t="n">
-        <v>1814.220546552639</v>
+        <v>294.0887984360795</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.003048083828577686</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9969519161714223</v>
       </c>
       <c r="F61" t="n">
-        <v>15.68870574147229</v>
+        <v>28.12549279829583</v>
       </c>
     </row>
     <row r="62">
@@ -1674,19 +1674,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68927.92115028438</v>
+        <v>96189.08390134788</v>
       </c>
       <c r="C62" t="n">
-        <v>1897.926058352906</v>
+        <v>326.8708281901125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.003398211261948947</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9966017887380511</v>
       </c>
       <c r="F62" t="n">
-        <v>15.08848077562196</v>
+        <v>27.2099550642177</v>
       </c>
     </row>
     <row r="63">
@@ -1694,19 +1694,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67029.99509193147</v>
+        <v>95862.21307315778</v>
       </c>
       <c r="C63" t="n">
-        <v>1981.537606632735</v>
+        <v>363.4719070015345</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.003791607718508949</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9962083922814911</v>
       </c>
       <c r="F63" t="n">
-        <v>14.50154745984086</v>
+        <v>26.30103062833073</v>
       </c>
     </row>
     <row r="64">
@@ -1714,19 +1714,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65048.45748529874</v>
+        <v>95498.74116615624</v>
       </c>
       <c r="C64" t="n">
-        <v>2064.396253917507</v>
+        <v>404.3034679956312</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.004233599972717883</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9957664000272821</v>
       </c>
       <c r="F64" t="n">
-        <v>13.92806937773566</v>
+        <v>25.39923035002934</v>
       </c>
     </row>
     <row r="65">
@@ -1734,19 +1734,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62984.06123138123</v>
+        <v>95094.4376981606</v>
       </c>
       <c r="C65" t="n">
-        <v>2145.756985439502</v>
+        <v>449.8123987439124</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.004730165187701751</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9952698348122982</v>
       </c>
       <c r="F65" t="n">
-        <v>13.36819431694695</v>
+        <v>24.50509190644226</v>
       </c>
     </row>
     <row r="66">
@@ -1754,19 +1754,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>60838.30424594173</v>
+        <v>94644.62529941669</v>
       </c>
       <c r="C66" t="n">
-        <v>2224.7873647892</v>
+        <v>500.4816216792419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.00528800890801695</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.994711991091983</v>
       </c>
       <c r="F66" t="n">
-        <v>12.82205341423472</v>
+        <v>23.61917961019031</v>
       </c>
     </row>
     <row r="67">
@@ -1774,19 +1774,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58613.51688115253</v>
+        <v>94144.14367773745</v>
       </c>
       <c r="C67" t="n">
-        <v>2300.568217038743</v>
+        <v>556.8298504742046</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.005914652029554546</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.9940853479704455</v>
       </c>
       <c r="F67" t="n">
-        <v>12.28976035630122</v>
+        <v>22.74208395719685</v>
       </c>
     </row>
     <row r="68">
@@ -1794,19 +1794,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56312.94866411378</v>
+        <v>93587.31382726325</v>
       </c>
       <c r="C68" t="n">
-        <v>2372.096838679116</v>
+        <v>619.4102269918658</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.006618527679244313</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9933814723207557</v>
       </c>
       <c r="F68" t="n">
-        <v>11.77141064465656</v>
+        <v>21.87442087101169</v>
       </c>
     </row>
     <row r="69">
@@ -1814,19 +1814,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53940.85182543467</v>
+        <v>92967.90360027138</v>
       </c>
       <c r="C69" t="n">
-        <v>2438.293268995448</v>
+        <v>688.8074725005456</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.00740908900626791</v>
       </c>
       <c r="E69" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9925909109937321</v>
       </c>
       <c r="F69" t="n">
-        <v>11.26708093262625</v>
+        <v>21.01683060997341</v>
       </c>
     </row>
     <row r="70">
@@ -1834,19 +1834,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51502.55855643922</v>
+        <v>92279.09612777084</v>
       </c>
       <c r="C70" t="n">
-        <v>2498.010174816019</v>
+        <v>765.6331043484141</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.008296928952233218</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9917030710477668</v>
       </c>
       <c r="F70" t="n">
-        <v>10.77682844227633</v>
+        <v>20.16997630416844</v>
       </c>
     </row>
     <row r="71">
@@ -1854,19 +1854,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49004.54838162321</v>
+        <v>91513.46302342243</v>
       </c>
       <c r="C71" t="n">
-        <v>2550.046891893148</v>
+        <v>850.5181752728965</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.009293913126806386</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9907060868731936</v>
       </c>
       <c r="F71" t="n">
-        <v>10.30069046858717</v>
+        <v>19.33454209069502</v>
       </c>
     </row>
     <row r="72">
@@ -1874,19 +1874,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46454.50148973006</v>
+        <v>90662.94484814953</v>
       </c>
       <c r="C72" t="n">
-        <v>2593.16812223235</v>
+        <v>944.1028881455758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.01041332696314734</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9895866730368527</v>
       </c>
       <c r="F72" t="n">
-        <v>9.838683977641459</v>
+        <v>18.51123081835447</v>
       </c>
     </row>
     <row r="73">
@@ -1894,19 +1894,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43861.3333674977</v>
+        <v>89718.84196000396</v>
       </c>
       <c r="C73" t="n">
-        <v>2626.127697262551</v>
+        <v>1047.022327126771</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.01167003835820268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.9883299616417973</v>
       </c>
       <c r="F73" t="n">
-        <v>9.390805304905237</v>
+        <v>17.70076129671536</v>
       </c>
     </row>
     <row r="74">
@@ -1914,19 +1914,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41235.20567023515</v>
+        <v>88671.81963287719</v>
       </c>
       <c r="C74" t="n">
-        <v>2647.697671263339</v>
+        <v>1159.887432394665</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.01308067700873716</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9869193229912628</v>
       </c>
       <c r="F74" t="n">
-        <v>8.957029958879355</v>
+        <v>16.90386506965927</v>
       </c>
     </row>
     <row r="75">
@@ -1934,19 +1934,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38587.50799897181</v>
+        <v>87511.93220048252</v>
       </c>
       <c r="C75" t="n">
-        <v>2656.702797932547</v>
+        <v>1283.260238960788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.01466383162493712</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.9853361683750629</v>
       </c>
       <c r="F75" t="n">
-        <v>8.537312534487135</v>
+        <v>16.12128270013059</v>
       </c>
     </row>
     <row r="76">
@@ -1954,19 +1954,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35930.80520103926</v>
+        <v>86228.67196152173</v>
       </c>
       <c r="C76" t="n">
-        <v>2652.060157296962</v>
+        <v>1417.622314800884</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.01644026612671801</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.983559733873282</v>
       </c>
       <c r="F76" t="n">
-        <v>8.131586739553173</v>
+        <v>15.35375956095467</v>
       </c>
     </row>
     <row r="77">
@@ -1974,19 +1974,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33278.7450437423</v>
+        <v>84811.04964672084</v>
       </c>
       <c r="C77" t="n">
-        <v>2632.823335931791</v>
+        <v>1563.335290620649</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.01843315578727889</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9815668442127211</v>
       </c>
       <c r="F77" t="n">
-        <v>7.739765536629855</v>
+        <v>14.60204113629195</v>
       </c>
     </row>
     <row r="78">
@@ -1994,19 +1994,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30645.92170781051</v>
+        <v>83247.71435610019</v>
       </c>
       <c r="C78" t="n">
-        <v>2598.230122163598</v>
+        <v>1720.59240281539</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.02066834406354257</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.9793316559364574</v>
       </c>
       <c r="F78" t="n">
-        <v>7.361741401257085</v>
+        <v>13.86686784953773</v>
       </c>
     </row>
     <row r="79">
@@ -2014,19 +2014,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28047.69158564692</v>
+        <v>81527.12195328479</v>
       </c>
       <c r="C79" t="n">
-        <v>2547.75216956537</v>
+        <v>1889.360113222323</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.02317462051837094</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9768253794816291</v>
       </c>
       <c r="F79" t="n">
-        <v>6.997386696514349</v>
+        <v>13.14896944616382</v>
       </c>
     </row>
     <row r="80">
@@ -2034,19 +2034,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25499.93941608155</v>
+        <v>79637.76184006246</v>
       </c>
       <c r="C80" t="n">
-        <v>2481.144527793682</v>
+        <v>2069.309177549417</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.02598401976320275</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.9740159802367973</v>
       </c>
       <c r="F80" t="n">
-        <v>6.646554162461738</v>
+        <v>12.44905897395524</v>
       </c>
     </row>
     <row r="81">
@@ -2054,19 +2054,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23018.79488828786</v>
+        <v>77568.45266251305</v>
       </c>
       <c r="C81" t="n">
-        <v>2398.492374577971</v>
+        <v>2259.735076312524</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.02913214069312742</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9708678593068726</v>
       </c>
       <c r="F81" t="n">
-        <v>6.309077517789042</v>
+        <v>11.76782641805348</v>
       </c>
     </row>
     <row r="82">
@@ -2074,19 +2074,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20620.30251370989</v>
+        <v>75308.71758620052</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.251756899409</v>
+        <v>2459.468578625294</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111552764823408</v>
+        <v>0.03265848440202312</v>
       </c>
       <c r="E82" t="n">
-        <v>0.888447235176592</v>
+        <v>0.9673415155979769</v>
       </c>
       <c r="F82" t="n">
-        <v>5.984772169721794</v>
+        <v>11.10593206381131</v>
       </c>
     </row>
     <row r="83">
@@ -2094,19 +2094,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18320.05075681048</v>
+        <v>72849.24900757523</v>
       </c>
       <c r="C83" t="n">
-        <v>2187.280729461302</v>
+        <v>2666.778471084772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.03660680799616023</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.9633931920038398</v>
       </c>
       <c r="F83" t="n">
-        <v>5.673436026993337</v>
+        <v>10.46399967622096</v>
       </c>
     </row>
     <row r="84">
@@ -2114,19 +2114,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16132.77002734918</v>
+        <v>70182.47053649045</v>
       </c>
       <c r="C84" t="n">
-        <v>2060.857044853963</v>
+        <v>2879.270243354999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.04102549000263478</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.9589745099973652</v>
       </c>
       <c r="F84" t="n">
-        <v>5.374850409505469</v>
+        <v>9.842609600028446</v>
       </c>
     </row>
     <row r="85">
@@ -2134,19 +2134,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14071.91298249522</v>
+        <v>67303.20029313545</v>
       </c>
       <c r="C85" t="n">
-        <v>1922.678591712388</v>
+        <v>3093.786855754113</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.04596790111434956</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9540320988856504</v>
       </c>
       <c r="F85" t="n">
-        <v>5.088781047190322</v>
+        <v>9.24229189893078</v>
       </c>
     </row>
     <row r="86">
@@ -2154,19 +2154,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12149.23439078283</v>
+        <v>64209.41343738134</v>
       </c>
       <c r="C86" t="n">
-        <v>1774.843183928566</v>
+        <v>3306.320656460233</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.05149277153395337</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.9485072284660466</v>
       </c>
       <c r="F86" t="n">
-        <v>4.81497915957359</v>
+        <v>8.663519664738896</v>
       </c>
     </row>
     <row r="87">
@@ -2174,19 +2174,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10374.39120685426</v>
+        <v>60903.09278092111</v>
       </c>
       <c r="C87" t="n">
-        <v>1619.805151383193</v>
+        <v>3511.949016842887</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.05766454307133417</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.9423354569286658</v>
       </c>
       <c r="F87" t="n">
-        <v>4.553182606644601</v>
+        <v>8.10670263730217</v>
       </c>
     </row>
     <row r="88">
@@ -2194,19 +2194,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8754.586055471073</v>
+        <v>57391.14376407822</v>
       </c>
       <c r="C88" t="n">
-        <v>1460.307515484275</v>
+        <v>3704.810120460977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.0645536902991618</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.9354463097008382</v>
       </c>
       <c r="F88" t="n">
-        <v>4.303117100878824</v>
+        <v>7.572181282549356</v>
       </c>
     </row>
     <row r="89">
@@ -2214,19 +2214,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7294.278539986798</v>
+        <v>53686.33364361724</v>
       </c>
       <c r="C89" t="n">
-        <v>1299.290344690341</v>
+        <v>3878.139165823952</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.07223699035899844</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.9277630096410016</v>
       </c>
       <c r="F89" t="n">
-        <v>4.064497469647984</v>
+        <v>7.060221478463134</v>
       </c>
     </row>
     <row r="90">
@@ -2234,19 +2234,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5994.988195296456</v>
+        <v>49808.19447779329</v>
       </c>
       <c r="C90" t="n">
-        <v>1139.778098708036</v>
+        <v>4024.388317951662</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.08079771531862923</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.9192022846813708</v>
       </c>
       <c r="F90" t="n">
-        <v>3.837028956802607</v>
+        <v>6.571009956520703</v>
       </c>
     </row>
     <row r="91">
@@ -2254,19 +2254,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4855.21009658842</v>
+        <v>45783.80615984162</v>
       </c>
       <c r="C91" t="n">
-        <v>984.7512212632259</v>
+        <v>4135.454990417877</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.09032571420515079</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.9096742857948492</v>
       </c>
       <c r="F91" t="n">
-        <v>3.620408551928818</v>
+        <v>6.104650638597072</v>
       </c>
     </row>
     <row r="92">
@@ -2274,19 +2274,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3870.458875325194</v>
+        <v>41648.35116942375</v>
       </c>
       <c r="C92" t="n">
-        <v>837.0096747404634</v>
+        <v>4203.040978083322</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.1009173439060175</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.8990826560939825</v>
       </c>
       <c r="F92" t="n">
-        <v>3.414326335668076</v>
+        <v>5.66116199624119</v>
       </c>
     </row>
     <row r="93">
@@ -2294,19 +2294,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3033.449200584731</v>
+        <v>37445.31019134042</v>
       </c>
       <c r="C93" t="n">
-        <v>699.0381898211847</v>
+        <v>4219.157778535268</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.1126751990296234</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.8873248009703766</v>
       </c>
       <c r="F93" t="n">
-        <v>3.218466829543793</v>
+        <v>5.240475540551064</v>
       </c>
     </row>
     <row r="94">
@@ -2314,19 +2314,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2334.411010763547</v>
+        <v>33226.15241280515</v>
       </c>
       <c r="C94" t="n">
-        <v>572.8843465232333</v>
+        <v>4176.779233632662</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.1257075806352757</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.8742924193647243</v>
       </c>
       <c r="F94" t="n">
-        <v>3.032510338956332</v>
+        <v>4.842435526840782</v>
       </c>
     </row>
     <row r="95">
@@ -2334,19 +2334,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1761.526664240313</v>
+        <v>29049.37317917249</v>
       </c>
       <c r="C95" t="n">
-        <v>460.0608361056541</v>
+        <v>4070.619895601847</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1401276327201565</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8598723672798435</v>
       </c>
       <c r="F95" t="n">
-        <v>2.856134278377099</v>
+        <v>4.466799929474476</v>
       </c>
     </row>
     <row r="96">
@@ -2354,19 +2354,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1301.465828134659</v>
+        <v>24978.75328357064</v>
       </c>
       <c r="C96" t="n">
-        <v>361.4820885739402</v>
+        <v>3897.986004901254</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1560520639540921</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8439479360459079</v>
       </c>
       <c r="F96" t="n">
-        <v>2.689014468278792</v>
+        <v>4.113242709523528</v>
       </c>
     </row>
     <row r="97">
@@ -2374,19 +2374,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>939.983739560719</v>
+        <v>21080.76727866939</v>
       </c>
       <c r="C97" t="n">
-        <v>277.4427722837186</v>
+        <v>3659.607732467544</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1735993611660674</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8264006388339326</v>
       </c>
       <c r="F97" t="n">
-        <v>2.530826393963574</v>
+        <v>3.781357362460543</v>
       </c>
     </row>
     <row r="98">
@@ -2394,19 +2394,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>662.5409672770004</v>
+        <v>17421.15954620184</v>
       </c>
       <c r="C98" t="n">
-        <v>207.641612512259</v>
+        <v>3360.322025718969</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.1928873917265505</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.8071126082734495</v>
       </c>
       <c r="F98" t="n">
-        <v>2.381246417171942</v>
+        <v>3.470661696354207</v>
       </c>
     </row>
     <row r="99">
@@ -2414,19 +2414,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.8993547647414</v>
+        <v>14060.83752048288</v>
       </c>
       <c r="C99" t="n">
-        <v>151.2489564220377</v>
+        <v>3009.445076195057</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.2140302860203812</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.7859697139796188</v>
       </c>
       <c r="F99" t="n">
-        <v>2.239952932147129</v>
+        <v>3.180603754547901</v>
       </c>
     </row>
     <row r="100">
@@ -2434,19 +2434,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303.6503983427037</v>
+        <v>11051.39244428782</v>
       </c>
       <c r="C100" t="n">
-        <v>107.0112263423681</v>
+        <v>2620.666323890309</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.2371344911604206</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.7628655088395794</v>
       </c>
       <c r="F100" t="n">
-        <v>2.106627458665304</v>
+        <v>2.910568762217487</v>
       </c>
     </row>
     <row r="101">
@@ -2454,19 +2454,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>196.6391720003356</v>
+        <v>8430.726120397509</v>
       </c>
       <c r="C101" t="n">
-        <v>73.38072562353391</v>
+        <v>2211.328002702248</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.2622938962934765</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.7377061037065235</v>
       </c>
       <c r="F101" t="n">
-        <v>1.980955665391087</v>
+        <v>2.659886945058356</v>
       </c>
     </row>
     <row r="102">
@@ -2474,19 +2474,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>123.2584463768017</v>
+        <v>6219.39811769526</v>
       </c>
       <c r="C102" t="n">
-        <v>48.65608094513433</v>
+        <v>1801.03788958882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2895839525796807</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7104160474203193</v>
       </c>
       <c r="F102" t="n">
-        <v>1.862628317750064</v>
+        <v>2.427842041981545</v>
       </c>
     </row>
     <row r="103">
@@ -2494,19 +2494,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.60236543166734</v>
+        <v>4418.36022810644</v>
       </c>
       <c r="C103" t="n">
-        <v>31.11761750054707</v>
+        <v>1409.698828615678</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.3190547524052441</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.6809452475947559</v>
       </c>
       <c r="F103" t="n">
-        <v>1.75134214529361</v>
+        <v>2.213680313081291</v>
       </c>
     </row>
     <row r="104">
@@ -2514,19 +2514,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.48474793112027</v>
+        <v>3008.661399490763</v>
       </c>
       <c r="C104" t="n">
-        <v>19.14346860729952</v>
+        <v>1055.207048640793</v>
       </c>
       <c r="D104" t="n">
-        <v>0.440234093977565</v>
+        <v>0.350723098591086</v>
       </c>
       <c r="E104" t="n">
-        <v>0.559765906022435</v>
+        <v>0.649276901408914</v>
       </c>
       <c r="F104" t="n">
-        <v>1.646800624235226</v>
+        <v>2.016619829765133</v>
       </c>
     </row>
     <row r="105">
@@ -2534,19 +2534,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.34127932382074</v>
+        <v>1953.454350849969</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29599396184089</v>
+        <v>751.2276164020647</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.3845636915319763</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.6154363084680237</v>
       </c>
       <c r="F105" t="n">
-        <v>1.548714671431352</v>
+        <v>1.835859825713971</v>
       </c>
     </row>
     <row r="106">
@@ -2554,19 +2554,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.04528536197985</v>
+        <v>1202.226734447905</v>
       </c>
       <c r="C106" t="n">
-        <v>6.373373689843154</v>
+        <v>505.5359762712267</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.4204996959274763</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.5795003040725237</v>
       </c>
       <c r="F106" t="n">
-        <v>1.456803246535135</v>
+        <v>1.670589884498793</v>
       </c>
     </row>
     <row r="107">
@@ -2574,19 +2574,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.671911672136696</v>
+        <v>696.6907581766779</v>
       </c>
       <c r="C107" t="n">
-        <v>3.426946777922375</v>
+        <v>319.358252001969</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.4583931224202935</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.5416068775797065</v>
       </c>
       <c r="F107" t="n">
-        <v>1.370793859344105</v>
+        <v>1.519998740763896</v>
       </c>
     </row>
     <row r="108">
@@ -2594,19 +2594,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.244964894214321</v>
+        <v>377.3325061747089</v>
       </c>
       <c r="C108" t="n">
-        <v>1.749779819667622</v>
+        <v>187.9250482328983</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.4980356718747339</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.5019643281252661</v>
       </c>
       <c r="F108" t="n">
-        <v>1.290422979472508</v>
+        <v>1.383282474775787</v>
       </c>
     </row>
     <row r="109">
@@ -2614,19 +2614,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.495185074546699</v>
+        <v>189.4074579418106</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8451384133459581</v>
+        <v>102.117313465306</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.5391409323315997</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.4608590676684003</v>
       </c>
       <c r="F109" t="n">
-        <v>1.215436345394354</v>
+        <v>1.259651882185864</v>
       </c>
     </row>
     <row r="110">
@@ -2634,19 +2634,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6500466612007407</v>
+        <v>87.29014447650458</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3845457068610646</v>
+        <v>50.74517144410657</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.5813390703891592</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.4186609296108408</v>
       </c>
       <c r="F110" t="n">
-        <v>1.14558916962353</v>
+        <v>1.148338799167237</v>
       </c>
     </row>
     <row r="111">
@@ -2654,19 +2654,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2655009543396761</v>
+        <v>36.544973032398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1641039756042438</v>
+        <v>22.8104725649766</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.6241753837047455</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.3758246162952545</v>
       </c>
       <c r="F111" t="n">
-        <v>1.080646236337918</v>
+        <v>1.048601155044226</v>
       </c>
     </row>
     <row r="112">
@@ -2674,19 +2674,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1013969787354323</v>
+        <v>13.73450046742141</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06536947931166227</v>
+        <v>9.162480626789653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.6671142243959507</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.3328857756040493</v>
       </c>
       <c r="F112" t="n">
-        <v>1.020381887153683</v>
+        <v>0.9597265087426701</v>
       </c>
     </row>
     <row r="113">
@@ -2694,19 +2694,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03602749942377004</v>
+        <v>4.572019840631752</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02418230577424123</v>
+        <v>3.244075717349274</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6712179907297799</v>
+        <v>0.7095497899022709</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3287820092702201</v>
+        <v>0.2904502100977291</v>
       </c>
       <c r="F113" t="n">
-        <v>0.964579890082881</v>
+        <v>0.8810338032872012</v>
       </c>
     </row>
     <row r="114">
@@ -2714,19 +2714,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01184519364952881</v>
+        <v>1.327944123282478</v>
       </c>
       <c r="C114" t="n">
-        <v>0.008262401854711613</v>
+        <v>0.9970536724544408</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6975320200898771</v>
+        <v>0.7508250196475692</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3024679799101229</v>
+        <v>0.2491749803524308</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9130331860739102</v>
+        <v>0.8118730510093036</v>
       </c>
     </row>
     <row r="115">
@@ -2734,19 +2734,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.003582791794817194</v>
+        <v>0.3308904508280375</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002592062078908941</v>
+        <v>0.2614892373852673</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7234754982576922</v>
+        <v>0.7902592435983058</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2765245017423078</v>
+        <v>0.2097407564016942</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8655435071065744</v>
+        <v>0.7516226571712508</v>
       </c>
     </row>
     <row r="116">
@@ -2754,19 +2754,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0009907297159082533</v>
+        <v>0.06940121344277018</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0007419459219956255</v>
+        <v>0.05740758992067914</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7488883295636743</v>
+        <v>0.8271842389041042</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2511116704363257</v>
+        <v>0.1728157610958958</v>
       </c>
       <c r="F116" t="n">
-        <v>0.821920859827543</v>
+        <v>0.6996841314395974</v>
       </c>
     </row>
     <row r="117">
@@ -2774,19 +2774,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0002487837939126278</v>
+        <v>0.01199362352209104</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00019246125055752</v>
+        <v>0.01032635349284631</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7736084715594932</v>
+        <v>0.8609869630997011</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2263915284405068</v>
+        <v>0.1390130369002989</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7819828694866351</v>
+        <v>0.6554740735064797</v>
       </c>
     </row>
     <row r="118">
@@ -2794,19 +2794,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.632254335510787e-05</v>
+        <v>0.001667270029244735</v>
       </c>
       <c r="C118" t="n">
-        <v>4.491583862725805e-05</v>
+        <v>0.001485796950216175</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7974753260709178</v>
+        <v>0.8911555561814026</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2025246739290822</v>
+        <v>0.1088444438185974</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7455539808802392</v>
+        <v>0.6184136176953448</v>
       </c>
     </row>
     <row r="119">
@@ -2814,19 +2814,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.140670472784982e-05</v>
+        <v>0.0001814730790285597</v>
       </c>
       <c r="C119" t="n">
-        <v>9.357302310860072e-06</v>
+        <v>0.0001664695198096652</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8203335261246775</v>
+        <v>0.9173234988946578</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1796664738753225</v>
+        <v>0.08267650110534219</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7124645166258825</v>
+        <v>0.5879160528643574</v>
       </c>
     </row>
     <row r="120">
@@ -2834,19 +2834,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.049402416989748e-06</v>
+        <v>1.500355921889457e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.725672695183973e-06</v>
+        <v>1.409292574131231e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8420370157066159</v>
+        <v>0.9393055031611787</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1579629842933841</v>
+        <v>0.06069449683882133</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6825495989492163</v>
+        <v>0.563374135201238</v>
       </c>
     </row>
     <row r="121">
@@ -2854,19 +2854,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.237297218057748e-07</v>
+        <v>9.106334775822652e-07</v>
       </c>
       <c r="C121" t="n">
-        <v>2.792017605610935e-07</v>
+        <v>8.715839944054233e-07</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8624532804825491</v>
+        <v>0.9571183312077233</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1375467195174509</v>
+        <v>0.04288166879227673</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6556479498397396</v>
+        <v>0.5441496099643551</v>
       </c>
     </row>
     <row r="122">
@@ -2874,19 +2874,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.452796124468132e-08</v>
+        <v>3.904948317684185e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>3.924995289504024e-08</v>
+        <v>3.791629899364383e-08</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8814675497798249</v>
+        <v>0.9709808148275302</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1185324502201751</v>
+        <v>0.02901918517246982</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6316005964067513</v>
+        <v>0.5295683728686125</v>
       </c>
     </row>
     <row r="123">
@@ -2894,19 +2894,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.278008349641075e-09</v>
+        <v>1.133184183198019e-09</v>
       </c>
       <c r="C123" t="n">
-        <v>4.74485961021082e-09</v>
+        <v>1.111982490674401e-09</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8989867571038398</v>
+        <v>0.9812901619719194</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1010132428961602</v>
+        <v>0.01870983802808057</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6102495237574349</v>
+        <v>0.5189249867933473</v>
       </c>
     </row>
     <row r="124">
@@ -2914,19 +2914,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.331487394302556e-10</v>
+        <v>2.120169252361771e-11</v>
       </c>
       <c r="C124" t="n">
-        <v>4.878007192503324e-10</v>
+        <v>2.095948418501194e-11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9149430227887552</v>
+        <v>0.9885759904151068</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08505697721124483</v>
+        <v>0.0114240095848932</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5914363364293672</v>
+        <v>0.5114992318449679</v>
       </c>
     </row>
     <row r="125">
@@ -2934,19 +2934,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.534802017992316e-11</v>
+        <v>2.422083386057672e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>4.214175248850279e-11</v>
+        <v>2.406191003953305e-13</v>
       </c>
       <c r="D125" t="n">
-        <v>0.929296412970199</v>
+        <v>0.9934385487321165</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07070358702980095</v>
+        <v>0.006561451267883545</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5750010102319858</v>
+        <v>0.5065845760646212</v>
       </c>
     </row>
     <row r="126">
@@ -2954,19 +2954,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.206267691420367e-12</v>
+        <v>1.589238210436778e-15</v>
       </c>
       <c r="C126" t="n">
-        <v>3.020421959295569e-12</v>
+        <v>1.583646962613378e-15</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9420367386596877</v>
+        <v>0.9964818063228775</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05796326134031227</v>
+        <v>0.003518193677122472</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5607808370510762</v>
+        <v>0.5035243417642672</v>
       </c>
     </row>
     <row r="127">
@@ -2974,19 +2974,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.858457321247984e-13</v>
+        <v>5.591247823400106e-18</v>
       </c>
       <c r="C127" t="n">
-        <v>1.771452138472278e-13</v>
+        <v>5.5814848078361e-18</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9531841911132612</v>
+        <v>0.9982538753651472</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04681580888673875</v>
+        <v>0.001746124634852797</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5486096821609361</v>
+        <v>0.501747512419413</v>
       </c>
     </row>
     <row r="128">
@@ -2994,19 +2994,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.700518277570608e-15</v>
+        <v>9.763015564006006e-21</v>
       </c>
       <c r="C128" t="n">
-        <v>8.376760394036744e-15</v>
+        <v>9.755258660330479e-21</v>
       </c>
       <c r="D128" t="n">
-        <v>0.962788666927062</v>
+        <v>0.9992054807631234</v>
       </c>
       <c r="E128" t="n">
-        <v>0.037211333072938</v>
+        <v>0.0007945192368765674</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5383176819295635</v>
+        <v>0.5007947797840027</v>
       </c>
     </row>
     <row r="129">
@@ -3014,19 +3014,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.237578835338647e-16</v>
+        <v>7.756903675528103e-24</v>
       </c>
       <c r="C129" t="n">
-        <v>3.143455029278178e-16</v>
+        <v>7.754360258289561e-24</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9709277176410056</v>
+        <v>0.999672109214587</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02907228235899439</v>
+        <v>0.0003278907854129542</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5297315028853448</v>
+        <v>0.5003279305446376</v>
       </c>
     </row>
     <row r="130">
@@ -3034,19 +3034,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.412380606046937e-18</v>
+        <v>2.543417238541541e-27</v>
       </c>
       <c r="C130" t="n">
-        <v>9.202514260500957e-18</v>
+        <v>2.543108842288819e-27</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9777031598774116</v>
+        <v>0.9998787472821807</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02229684012258837</v>
+        <v>0.0001212527178192646</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5226752244013781</v>
+        <v>0.5001212575237494</v>
       </c>
     </row>
     <row r="131">
@@ -3054,19 +3054,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.0986634554598e-19</v>
+        <v>3.083962527215307e-31</v>
       </c>
       <c r="C131" t="n">
-        <v>2.063482500319547e-19</v>
+        <v>3.083840293738347e-31</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9832364950898975</v>
+        <v>0.9999603647982486</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01676350491010248</v>
+        <v>3.96352017514312e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5169703095465288</v>
+        <v>0.5000396356487808</v>
       </c>
     </row>
     <row r="132">
@@ -3074,19 +3074,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.518095514025299e-21</v>
+        <v>1.222334769600324e-35</v>
       </c>
       <c r="C132" t="n">
-        <v>3.47469418073654e-21</v>
+        <v>1.222320983382397e-35</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9876634010885337</v>
+        <v>0.9999887214057314</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01233659891146632</v>
+        <v>1.127859426863775e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5123365989114663</v>
+        <v>0.5000112785942686</v>
       </c>
     </row>
     <row r="133">
@@ -3094,10 +3094,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.340133328875906e-23</v>
+        <v>1.378621792677086e-40</v>
       </c>
       <c r="C133" t="n">
-        <v>4.340133328875906e-23</v>
+        <v>1.378621792677086e-40</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
